--- a/BackTest/2020-01-23 BackTest LAMB.xlsx
+++ b/BackTest/2020-01-23 BackTest LAMB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N122"/>
+  <dimension ref="A1:M122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>573625.0177285105</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,20 +486,13 @@
       <c r="H3" t="n">
         <v>1</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>31.31</v>
-      </c>
-      <c r="K3" t="n">
-        <v>31.31</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +517,15 @@
         <v>606120.1925285106</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>31.31</v>
-      </c>
-      <c r="K4" t="n">
-        <v>31.31</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +550,15 @@
         <v>619382.1872285106</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>31.32</v>
-      </c>
-      <c r="K5" t="n">
-        <v>31.31</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -622,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -658,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -694,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -730,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -764,18 +715,15 @@
         <v>599598.5039285106</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -800,18 +748,15 @@
         <v>599698.5039285106</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -838,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -874,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -910,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -946,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -982,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1018,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1054,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1090,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1126,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1162,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1198,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1234,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1270,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1306,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1342,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1378,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1414,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1450,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1486,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1520,18 +1408,21 @@
         <v>562476.4424683576</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>31.47</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1556,22 +1447,21 @@
         <v>562576.4424683576</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
         <v>31.22</v>
       </c>
-      <c r="K32" t="n">
-        <v>31.22</v>
-      </c>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1596,26 +1486,21 @@
         <v>562676.4424683576</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
         <v>31.47</v>
       </c>
-      <c r="K33" t="n">
-        <v>31.22</v>
-      </c>
-      <c r="L33" t="inlineStr">
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1640,24 +1525,21 @@
         <v>562676.4424683576</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>31.5</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>31.22</v>
-      </c>
-      <c r="L34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1682,18 +1564,21 @@
         <v>562676.4424683576</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>31.5</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1720,16 +1605,17 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1756,16 +1642,17 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1792,16 +1679,17 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1826,18 +1714,19 @@
         <v>639946.1042683576</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1862,18 +1751,19 @@
         <v>639946.1042683576</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1898,18 +1788,19 @@
         <v>680446.1042683576</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1934,18 +1825,17 @@
         <v>680546.1042683576</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1970,18 +1860,15 @@
         <v>616969.9579683576</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2006,18 +1893,15 @@
         <v>640251.5225683576</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2042,18 +1926,15 @@
         <v>628681.6660683576</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2078,18 +1959,15 @@
         <v>630029.9234683577</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2114,18 +1992,15 @@
         <v>547164.0775683577</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2150,18 +2025,15 @@
         <v>521015.4755683577</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2186,18 +2058,15 @@
         <v>380939.6507683577</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2224,16 +2093,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2260,16 +2126,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2296,16 +2159,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2332,16 +2192,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2368,16 +2225,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2404,16 +2258,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2440,16 +2291,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2476,16 +2324,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2512,16 +2357,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2546,24 +2388,15 @@
         <v>130825.9711683577</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>31.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2588,24 +2421,15 @@
         <v>130925.9711683577</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>31.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2632,20 +2456,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2672,20 +2489,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2712,20 +2522,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2752,20 +2555,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2792,20 +2588,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2832,20 +2621,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2872,20 +2654,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2912,20 +2687,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2952,20 +2720,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2990,24 +2751,15 @@
         <v>151787.4930076242</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>31.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3032,24 +2784,15 @@
         <v>151787.4930076242</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>31.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3074,24 +2817,15 @@
         <v>151787.4930076242</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>31.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3116,24 +2850,15 @@
         <v>151787.4930076242</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>31.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3160,22 +2885,13 @@
       <c r="H74" t="n">
         <v>1</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>31.39</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3200,24 +2916,15 @@
         <v>151787.4930076242</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>31.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3244,22 +2951,13 @@
       <c r="H76" t="n">
         <v>1</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>31.39</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3284,24 +2982,15 @@
         <v>152653.4930076242</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>31.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3326,24 +3015,15 @@
         <v>190653.4930076242</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>31.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3370,20 +3050,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3408,22 +3081,15 @@
         <v>190653.4930076242</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3450,20 +3116,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3488,22 +3147,15 @@
         <v>192416.9496076242</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3530,20 +3182,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3568,22 +3213,15 @@
         <v>192616.9496076242</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3608,22 +3246,15 @@
         <v>189920.0209076242</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3650,22 +3281,13 @@
       <c r="H86" t="n">
         <v>1</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>31.61</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3690,24 +3312,15 @@
         <v>441869.8881076242</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3734,20 +3347,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3774,20 +3380,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3812,22 +3411,15 @@
         <v>561027.9333076242</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3854,20 +3446,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3894,20 +3479,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3934,20 +3512,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3974,20 +3545,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4014,20 +3578,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4054,20 +3611,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4094,20 +3644,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4134,20 +3677,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4174,20 +3710,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4214,20 +3743,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4254,20 +3776,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4294,20 +3809,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4334,20 +3842,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4374,20 +3875,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4414,20 +3908,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4454,20 +3941,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4494,20 +3974,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4534,20 +4007,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4574,20 +4040,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4614,20 +4073,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4654,20 +4106,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4694,20 +4139,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4734,20 +4172,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4774,20 +4205,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4814,20 +4238,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4854,20 +4271,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4894,20 +4304,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4934,20 +4337,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4974,20 +4370,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5014,20 +4403,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5054,20 +4436,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5094,22 +4469,15 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest LAMB.xlsx
+++ b/BackTest/2020-01-23 BackTest LAMB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>573625.0177285105</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>573625.0177285105</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>599598.5039285106</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>599698.5039285106</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1408,17 +1408,11 @@
         <v>562476.4424683576</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" t="n">
-        <v>31.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1447,17 +1441,11 @@
         <v>562576.4424683576</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" t="n">
-        <v>31.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1486,17 +1474,11 @@
         <v>562676.4424683576</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="n">
-        <v>31.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1525,17 +1507,11 @@
         <v>562676.4424683576</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="n">
-        <v>31.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1564,17 +1540,11 @@
         <v>562676.4424683576</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="n">
-        <v>31.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1607,11 +1577,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1640,15 +1606,11 @@
         <v>565176.4424683576</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1681,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1714,15 +1672,11 @@
         <v>639946.1042683576</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1751,15 +1705,11 @@
         <v>639946.1042683576</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1788,15 +1738,11 @@
         <v>680446.1042683576</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1825,16 +1771,14 @@
         <v>680546.1042683576</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
       <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
@@ -1860,7 +1804,7 @@
         <v>616969.9579683576</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1893,7 +1837,7 @@
         <v>640251.5225683576</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1926,7 +1870,7 @@
         <v>628681.6660683576</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1959,7 +1903,7 @@
         <v>630029.9234683577</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1992,7 +1936,7 @@
         <v>547164.0775683577</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2025,7 +1969,7 @@
         <v>521015.4755683577</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2058,7 +2002,7 @@
         <v>380939.6507683577</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2091,7 +2035,7 @@
         <v>146235.2460683577</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2124,7 +2068,7 @@
         <v>146235.2460683577</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2157,7 +2101,7 @@
         <v>145248.4328683577</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2190,7 +2134,7 @@
         <v>145348.4328683577</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2223,7 +2167,7 @@
         <v>145348.4328683577</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2256,7 +2200,7 @@
         <v>145348.4328683577</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2289,7 +2233,7 @@
         <v>145348.4328683577</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2322,7 +2266,7 @@
         <v>135148.4328683577</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2355,7 +2299,7 @@
         <v>133206.5639683577</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2388,7 +2332,7 @@
         <v>130825.9711683577</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2421,7 +2365,7 @@
         <v>130925.9711683577</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2454,7 +2398,7 @@
         <v>130925.9711683577</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2487,7 +2431,7 @@
         <v>130925.9711683577</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2520,7 +2464,7 @@
         <v>130925.9711683577</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2553,7 +2497,7 @@
         <v>133925.9711683576</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2586,7 +2530,7 @@
         <v>133885.9711683576</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2619,7 +2563,7 @@
         <v>164802.6250683577</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2652,7 +2596,7 @@
         <v>164835.6317076242</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2685,7 +2629,7 @@
         <v>158506.4930076242</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2718,7 +2662,7 @@
         <v>151787.4930076242</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2751,7 +2695,7 @@
         <v>151787.4930076242</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2883,7 +2827,7 @@
         <v>151787.4930076242</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2949,7 +2893,7 @@
         <v>151787.4930076242</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3015,7 +2959,7 @@
         <v>190653.4930076242</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3048,7 +2992,7 @@
         <v>190653.4930076242</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3081,7 +3025,7 @@
         <v>190653.4930076242</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3147,7 +3091,7 @@
         <v>192416.9496076242</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3180,7 +3124,7 @@
         <v>192516.9496076242</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3213,7 +3157,7 @@
         <v>192616.9496076242</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3246,7 +3190,7 @@
         <v>189920.0209076242</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3279,7 +3223,7 @@
         <v>189920.0209076242</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3345,7 +3289,7 @@
         <v>441869.8881076242</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3411,7 +3355,7 @@
         <v>561027.9333076242</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3840,7 +3784,7 @@
         <v>369840.6967076242</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3873,7 +3817,7 @@
         <v>396270.6967076242</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3906,7 +3850,7 @@
         <v>353270.6967076242</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3939,7 +3883,7 @@
         <v>352894.8458076242</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3972,7 +3916,7 @@
         <v>354894.8458076242</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4005,7 +3949,7 @@
         <v>538176.3871076242</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4038,7 +3982,7 @@
         <v>536871.1287076242</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4137,7 +4081,7 @@
         <v>533845.6137076241</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4170,7 +4114,7 @@
         <v>533945.6137076241</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4236,7 +4180,7 @@
         <v>530832.4827076241</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4269,7 +4213,7 @@
         <v>532566.4196076241</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4302,7 +4246,7 @@
         <v>532566.4196076241</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4335,7 +4279,7 @@
         <v>420459.4036076241</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4368,7 +4312,7 @@
         <v>409337.155507624</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4401,7 +4345,7 @@
         <v>410678.733607624</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4434,7 +4378,7 @@
         <v>410578.733607624</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4467,7 +4411,7 @@
         <v>422858.138907624</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4478,6 +4422,6 @@
       <c r="M122" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest LAMB.xlsx
+++ b/BackTest/2020-01-23 BackTest LAMB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>573625.0177285105</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>573625.0177285105</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>606120.1925285106</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>619382.1872285106</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>619482.1872285106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>599598.5039285106</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>599598.5039285106</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -814,10 +814,14 @@
         <v>596758.7928285106</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>31.31</v>
+      </c>
+      <c r="J13" t="n">
+        <v>31.31</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
@@ -847,11 +851,19 @@
         <v>584158.7928285106</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>31.37</v>
+      </c>
+      <c r="J14" t="n">
+        <v>31.31</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -883,8 +895,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>31.31</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1177,7 +1195,7 @@
         <v>572838.7549683576</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1228,7 @@
         <v>572938.7549683576</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1261,7 @@
         <v>573038.7549683576</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1294,7 @@
         <v>573038.7549683576</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1327,7 @@
         <v>573038.7549683576</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1360,7 @@
         <v>573038.7549683576</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1393,7 @@
         <v>573038.7549683576</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1426,7 @@
         <v>562476.4424683576</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1459,7 @@
         <v>562576.4424683576</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1492,7 @@
         <v>562676.4424683576</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1525,7 @@
         <v>562676.4424683576</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1606,7 +1624,7 @@
         <v>565176.4424683576</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1672,7 +1690,7 @@
         <v>639946.1042683576</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1870,7 +1888,7 @@
         <v>628681.6660683576</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1936,7 +1954,7 @@
         <v>547164.0775683577</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1987,7 @@
         <v>521015.4755683577</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2020,7 @@
         <v>380939.6507683577</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2053,7 @@
         <v>146235.2460683577</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2086,7 @@
         <v>146235.2460683577</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2119,7 @@
         <v>145248.4328683577</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2200,7 +2218,7 @@
         <v>145348.4328683577</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2251,7 @@
         <v>145348.4328683577</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2284,7 @@
         <v>135148.4328683577</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2317,7 @@
         <v>133206.5639683577</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2350,7 @@
         <v>130825.9711683577</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2383,7 @@
         <v>130925.9711683577</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2497,7 +2515,7 @@
         <v>133925.9711683576</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2728,7 +2746,7 @@
         <v>151787.4930076242</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2779,7 @@
         <v>151787.4930076242</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2959,7 +2977,7 @@
         <v>190653.4930076242</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +3010,7 @@
         <v>190653.4930076242</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3043,7 @@
         <v>190653.4930076242</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3124,7 +3142,7 @@
         <v>192516.9496076242</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3175,7 @@
         <v>192616.9496076242</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3208,7 @@
         <v>189920.0209076242</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,10 +3241,14 @@
         <v>189920.0209076242</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="J86" t="n">
+        <v>31.61</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
@@ -3256,11 +3278,19 @@
         <v>441869.8881076242</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="J87" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3289,11 +3319,17 @@
         <v>441869.8881076242</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3325,8 +3361,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3358,8 +3400,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3391,8 +3439,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3424,8 +3478,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3457,8 +3517,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3487,11 +3553,19 @@
         <v>546927.9333076242</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>31.81</v>
+      </c>
+      <c r="J94" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3523,8 +3597,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3556,8 +3636,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3589,8 +3675,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3622,8 +3714,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3655,8 +3753,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3688,8 +3792,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3721,8 +3831,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3754,8 +3870,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3784,11 +3906,17 @@
         <v>369840.6967076242</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3817,11 +3945,17 @@
         <v>396270.6967076242</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3850,11 +3984,17 @@
         <v>353270.6967076242</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3883,11 +4023,17 @@
         <v>352894.8458076242</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3916,11 +4062,17 @@
         <v>354894.8458076242</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3949,11 +4101,17 @@
         <v>538176.3871076242</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3982,11 +4140,17 @@
         <v>536871.1287076242</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4018,8 +4182,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4051,8 +4221,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4081,11 +4257,17 @@
         <v>533845.6137076241</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4114,11 +4296,17 @@
         <v>533945.6137076241</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4150,8 +4338,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4180,11 +4374,17 @@
         <v>530832.4827076241</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4213,11 +4413,17 @@
         <v>532566.4196076241</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4246,11 +4452,17 @@
         <v>532566.4196076241</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4279,11 +4491,17 @@
         <v>420459.4036076241</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4312,11 +4530,17 @@
         <v>409337.155507624</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4345,11 +4569,17 @@
         <v>410678.733607624</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4378,11 +4608,17 @@
         <v>410578.733607624</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4411,17 +4647,23 @@
         <v>422858.138907624</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
       <c r="M122" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest LAMB.xlsx
+++ b/BackTest/2020-01-23 BackTest LAMB.xlsx
@@ -451,7 +451,7 @@
         <v>573625.0177285105</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>573625.0177285105</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>31.31</v>
+      </c>
+      <c r="J3" t="n">
+        <v>31.31</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>606120.1925285106</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>31.31</v>
+      </c>
+      <c r="J4" t="n">
+        <v>31.31</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>619382.1872285106</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>31.32</v>
+      </c>
+      <c r="J5" t="n">
+        <v>31.31</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,7 +603,7 @@
         <v>619482.1872285106</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,11 +636,17 @@
         <v>599598.5039285106</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>31.34</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +675,15 @@
         <v>599598.5039285106</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -686,7 +716,11 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -719,7 +753,11 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +786,17 @@
         <v>599698.5039285106</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>31.31</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -785,7 +829,11 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,15 +862,15 @@
         <v>596758.7928285106</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>31.31</v>
-      </c>
-      <c r="J13" t="n">
-        <v>31.31</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -851,17 +899,13 @@
         <v>584158.7928285106</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>31.37</v>
-      </c>
-      <c r="J14" t="n">
-        <v>31.31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L14" t="n">
@@ -895,12 +939,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>31.31</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -935,7 +977,11 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -968,7 +1014,11 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1001,7 +1051,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1034,7 +1088,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1067,7 +1125,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1100,7 +1162,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1133,7 +1199,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1166,7 +1236,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1195,11 +1269,15 @@
         <v>572838.7549683576</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1228,11 +1306,15 @@
         <v>572938.7549683576</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1261,11 +1343,15 @@
         <v>573038.7549683576</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1294,11 +1380,15 @@
         <v>573038.7549683576</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1327,11 +1417,15 @@
         <v>573038.7549683576</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1360,11 +1454,15 @@
         <v>573038.7549683576</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1393,11 +1491,15 @@
         <v>573038.7549683576</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1426,11 +1528,15 @@
         <v>562476.4424683576</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1459,11 +1565,15 @@
         <v>562576.4424683576</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1492,11 +1602,15 @@
         <v>562676.4424683576</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1525,11 +1639,15 @@
         <v>562676.4424683576</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1562,7 +1680,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1595,7 +1717,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1628,7 +1754,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1661,7 +1791,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1694,7 +1828,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1727,7 +1865,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1760,7 +1902,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1789,14 +1935,16 @@
         <v>680546.1042683576</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
@@ -1822,7 +1970,7 @@
         <v>616969.9579683576</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1855,7 +2003,7 @@
         <v>640251.5225683576</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1888,7 +2036,7 @@
         <v>628681.6660683576</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1921,7 +2069,7 @@
         <v>630029.9234683577</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1954,7 +2102,7 @@
         <v>547164.0775683577</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1987,7 +2135,7 @@
         <v>521015.4755683577</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2020,7 +2168,7 @@
         <v>380939.6507683577</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2053,7 +2201,7 @@
         <v>146235.2460683577</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2152,7 +2300,7 @@
         <v>145348.4328683577</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2185,7 +2333,7 @@
         <v>145348.4328683577</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2416,7 +2564,7 @@
         <v>130925.9711683577</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2449,7 +2597,7 @@
         <v>130925.9711683577</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2482,7 +2630,7 @@
         <v>130925.9711683577</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2548,7 +2696,7 @@
         <v>133885.9711683576</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2581,7 +2729,7 @@
         <v>164802.6250683577</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2614,7 +2762,7 @@
         <v>164835.6317076242</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2647,7 +2795,7 @@
         <v>158506.4930076242</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2680,7 +2828,7 @@
         <v>151787.4930076242</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2713,7 +2861,7 @@
         <v>151787.4930076242</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2746,7 +2894,7 @@
         <v>151787.4930076242</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2779,7 +2927,7 @@
         <v>151787.4930076242</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2911,10 +3059,14 @@
         <v>151787.4930076242</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>31.39</v>
+      </c>
+      <c r="J76" t="n">
+        <v>31.39</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
@@ -2944,11 +3096,19 @@
         <v>152653.4930076242</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>31.39</v>
+      </c>
+      <c r="J77" t="n">
+        <v>31.39</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2977,11 +3137,19 @@
         <v>190653.4930076242</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>31.51</v>
+      </c>
+      <c r="J78" t="n">
+        <v>31.39</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3013,8 +3181,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>31.39</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3046,8 +3220,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>31.39</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3079,8 +3259,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>31.39</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3112,8 +3298,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>31.39</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3145,8 +3337,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>31.39</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3178,8 +3376,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>31.39</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3211,8 +3415,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>31.39</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3241,15 +3451,17 @@
         <v>189920.0209076242</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>31.61</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
+        <v>31.39</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3278,17 +3490,15 @@
         <v>441869.8881076242</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>31.61</v>
+        <v>31.39</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L87" t="n">
@@ -3323,7 +3533,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>31.61</v>
+        <v>31.39</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3362,7 +3572,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>31.61</v>
+        <v>31.39</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3401,7 +3611,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>31.61</v>
+        <v>31.39</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3440,7 +3650,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>31.61</v>
+        <v>31.39</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3479,7 +3689,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>31.61</v>
+        <v>31.39</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3518,7 +3728,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>31.61</v>
+        <v>31.39</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3553,13 +3763,11 @@
         <v>546927.9333076242</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>31.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>31.61</v>
+        <v>31.39</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3598,7 +3806,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>31.61</v>
+        <v>31.39</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3637,7 +3845,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>31.61</v>
+        <v>31.39</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3672,19 +3880,19 @@
         <v>559764.3210076242</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>31.61</v>
+        <v>31.39</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>1</v>
+        <v>1.00901720293087</v>
       </c>
       <c r="M97" t="inlineStr"/>
     </row>
@@ -3714,14 +3922,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>31.61</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3750,17 +3952,11 @@
         <v>379686.1507076242</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>31.61</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3792,14 +3988,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>31.61</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3831,14 +4021,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>31.61</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3870,14 +4054,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>31.61</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3909,14 +4087,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>31.61</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3948,14 +4120,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>31.61</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3987,14 +4153,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>31.61</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4023,17 +4183,15 @@
         <v>352894.8458076242</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>31.58</v>
+      </c>
       <c r="J106" t="n">
-        <v>31.61</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>31.58</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4062,15 +4220,17 @@
         <v>354894.8458076242</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>31.55</v>
+      </c>
       <c r="J107" t="n">
-        <v>31.61</v>
+        <v>31.58</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L107" t="n">
@@ -4105,7 +4265,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>31.61</v>
+        <v>31.58</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4144,7 +4304,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>31.61</v>
+        <v>31.58</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4183,7 +4343,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>31.61</v>
+        <v>31.58</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4222,7 +4382,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>31.61</v>
+        <v>31.58</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4261,7 +4421,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>31.61</v>
+        <v>31.58</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4300,7 +4460,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>31.61</v>
+        <v>31.58</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4339,7 +4499,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>31.61</v>
+        <v>31.58</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4378,7 +4538,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>31.61</v>
+        <v>31.58</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4417,7 +4577,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>31.61</v>
+        <v>31.58</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4456,7 +4616,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>31.61</v>
+        <v>31.58</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4495,7 +4655,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>31.61</v>
+        <v>31.58</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4534,7 +4694,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>31.61</v>
+        <v>31.58</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4573,7 +4733,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>31.61</v>
+        <v>31.58</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4612,7 +4772,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>31.61</v>
+        <v>31.58</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4651,7 +4811,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>31.61</v>
+        <v>31.58</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>

--- a/BackTest/2020-01-23 BackTest LAMB.xlsx
+++ b/BackTest/2020-01-23 BackTest LAMB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M122"/>
+  <dimension ref="A1:L122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>3027.4869</v>
       </c>
       <c r="G2" t="n">
-        <v>573625.0177285105</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,15 @@
         <v>39800</v>
       </c>
       <c r="G3" t="n">
-        <v>573625.0177285105</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>31.31</v>
-      </c>
-      <c r="J3" t="n">
-        <v>31.31</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,363 +503,301 @@
         <v>32495.1748</v>
       </c>
       <c r="G4" t="n">
-        <v>606120.1925285106</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>31.33</v>
+      </c>
+      <c r="C5" t="n">
+        <v>31.33</v>
+      </c>
+      <c r="D5" t="n">
+        <v>31.33</v>
+      </c>
+      <c r="E5" t="n">
+        <v>31.33</v>
+      </c>
+      <c r="F5" t="n">
+        <v>13261.9947</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>31.34</v>
+      </c>
+      <c r="C6" t="n">
+        <v>31.34</v>
+      </c>
+      <c r="D6" t="n">
+        <v>31.34</v>
+      </c>
+      <c r="E6" t="n">
+        <v>31.34</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>31.32</v>
+      </c>
+      <c r="C7" t="n">
         <v>31.31</v>
       </c>
-      <c r="J4" t="n">
+      <c r="D7" t="n">
+        <v>31.32</v>
+      </c>
+      <c r="E7" t="n">
         <v>31.31</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="F7" t="n">
+        <v>19883.6833</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>31.31</v>
+      </c>
+      <c r="C8" t="n">
+        <v>31.31</v>
+      </c>
+      <c r="D8" t="n">
+        <v>31.31</v>
+      </c>
+      <c r="E8" t="n">
+        <v>31.31</v>
+      </c>
+      <c r="F8" t="n">
+        <v>10600</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>31.34</v>
+      </c>
+      <c r="C9" t="n">
+        <v>31.31</v>
+      </c>
+      <c r="D9" t="n">
+        <v>31.34</v>
+      </c>
+      <c r="E9" t="n">
+        <v>31.31</v>
+      </c>
+      <c r="F9" t="n">
+        <v>14500</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>31.31</v>
+      </c>
+      <c r="C10" t="n">
+        <v>31.31</v>
+      </c>
+      <c r="D10" t="n">
+        <v>31.31</v>
+      </c>
+      <c r="E10" t="n">
+        <v>31.31</v>
+      </c>
+      <c r="F10" t="n">
+        <v>27600</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>31.34</v>
+      </c>
+      <c r="C11" t="n">
+        <v>31.34</v>
+      </c>
+      <c r="D11" t="n">
+        <v>31.34</v>
+      </c>
+      <c r="E11" t="n">
+        <v>31.34</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>31.31</v>
+      </c>
+      <c r="I11" t="n">
+        <v>31.31</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>31.31</v>
+      </c>
+      <c r="C12" t="n">
+        <v>31.31</v>
+      </c>
+      <c r="D12" t="n">
+        <v>31.31</v>
+      </c>
+      <c r="E12" t="n">
+        <v>31.31</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3039.7111</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>31.31</v>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>31.33</v>
-      </c>
-      <c r="C5" t="n">
-        <v>31.33</v>
-      </c>
-      <c r="D5" t="n">
-        <v>31.33</v>
-      </c>
-      <c r="E5" t="n">
-        <v>31.33</v>
-      </c>
-      <c r="F5" t="n">
-        <v>13261.9947</v>
-      </c>
-      <c r="G5" t="n">
-        <v>619382.1872285106</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>31.32</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>31.37</v>
+      </c>
+      <c r="C13" t="n">
+        <v>31.37</v>
+      </c>
+      <c r="D13" t="n">
+        <v>31.37</v>
+      </c>
+      <c r="E13" t="n">
+        <v>31.37</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
         <v>31.31</v>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>31.34</v>
-      </c>
-      <c r="C6" t="n">
-        <v>31.34</v>
-      </c>
-      <c r="D6" t="n">
-        <v>31.34</v>
-      </c>
-      <c r="E6" t="n">
-        <v>31.34</v>
-      </c>
-      <c r="F6" t="n">
-        <v>100</v>
-      </c>
-      <c r="G6" t="n">
-        <v>619482.1872285106</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>31.32</v>
-      </c>
-      <c r="C7" t="n">
-        <v>31.31</v>
-      </c>
-      <c r="D7" t="n">
-        <v>31.32</v>
-      </c>
-      <c r="E7" t="n">
-        <v>31.31</v>
-      </c>
-      <c r="F7" t="n">
-        <v>19883.6833</v>
-      </c>
-      <c r="G7" t="n">
-        <v>599598.5039285106</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>31.34</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>31.31</v>
-      </c>
-      <c r="C8" t="n">
-        <v>31.31</v>
-      </c>
-      <c r="D8" t="n">
-        <v>31.31</v>
-      </c>
-      <c r="E8" t="n">
-        <v>31.31</v>
-      </c>
-      <c r="F8" t="n">
-        <v>10600</v>
-      </c>
-      <c r="G8" t="n">
-        <v>599598.5039285106</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>31.34</v>
-      </c>
-      <c r="C9" t="n">
-        <v>31.31</v>
-      </c>
-      <c r="D9" t="n">
-        <v>31.34</v>
-      </c>
-      <c r="E9" t="n">
-        <v>31.31</v>
-      </c>
-      <c r="F9" t="n">
-        <v>14500</v>
-      </c>
-      <c r="G9" t="n">
-        <v>599598.5039285106</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>31.31</v>
-      </c>
-      <c r="C10" t="n">
-        <v>31.31</v>
-      </c>
-      <c r="D10" t="n">
-        <v>31.31</v>
-      </c>
-      <c r="E10" t="n">
-        <v>31.31</v>
-      </c>
-      <c r="F10" t="n">
-        <v>27600</v>
-      </c>
-      <c r="G10" t="n">
-        <v>599598.5039285106</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>31.34</v>
-      </c>
-      <c r="C11" t="n">
-        <v>31.34</v>
-      </c>
-      <c r="D11" t="n">
-        <v>31.34</v>
-      </c>
-      <c r="E11" t="n">
-        <v>31.34</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>599698.5039285106</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>31.31</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>31.31</v>
-      </c>
-      <c r="C12" t="n">
-        <v>31.31</v>
-      </c>
-      <c r="D12" t="n">
-        <v>31.31</v>
-      </c>
-      <c r="E12" t="n">
-        <v>31.31</v>
-      </c>
-      <c r="F12" t="n">
-        <v>3039.7111</v>
-      </c>
-      <c r="G12" t="n">
-        <v>596658.7928285106</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>31.37</v>
-      </c>
-      <c r="C13" t="n">
-        <v>31.37</v>
-      </c>
-      <c r="D13" t="n">
-        <v>31.37</v>
-      </c>
-      <c r="E13" t="n">
-        <v>31.37</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>596758.7928285106</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -896,22 +819,15 @@
         <v>12600</v>
       </c>
       <c r="G14" t="n">
-        <v>584158.7928285106</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -933,22 +849,19 @@
         <v>815.8750398469875</v>
       </c>
       <c r="G15" t="n">
-        <v>584974.6678683576</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>31.31</v>
+      </c>
+      <c r="I15" t="n">
+        <v>31.31</v>
+      </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -970,22 +883,21 @@
         <v>12697.8986</v>
       </c>
       <c r="G16" t="n">
-        <v>597672.5664683576</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>31.31</v>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1007,22 +919,23 @@
         <v>13766.5097</v>
       </c>
       <c r="G17" t="n">
-        <v>583906.0567683575</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
+        <v>31.38</v>
+      </c>
+      <c r="I17" t="n">
+        <v>31.31</v>
+      </c>
+      <c r="J17" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1044,22 +957,19 @@
         <v>100</v>
       </c>
       <c r="G18" t="n">
-        <v>584006.0567683575</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>31.34</v>
+      </c>
+      <c r="I18" t="n">
+        <v>31.34</v>
+      </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1081,22 +991,23 @@
         <v>17108.7528</v>
       </c>
       <c r="G19" t="n">
-        <v>566897.3039683575</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
+        <v>31.36</v>
+      </c>
+      <c r="I19" t="n">
+        <v>31.34</v>
+      </c>
+      <c r="J19" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1118,22 +1029,23 @@
         <v>10963.3002</v>
       </c>
       <c r="G20" t="n">
-        <v>577860.6041683576</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
+        <v>31.31</v>
+      </c>
+      <c r="I20" t="n">
+        <v>31.34</v>
+      </c>
+      <c r="J20" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1155,22 +1067,15 @@
         <v>4502.8559</v>
       </c>
       <c r="G21" t="n">
-        <v>573357.7482683576</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1192,22 +1097,19 @@
         <v>538.9933</v>
       </c>
       <c r="G22" t="n">
-        <v>572818.7549683576</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>31.34</v>
+      </c>
+      <c r="I22" t="n">
+        <v>31.34</v>
+      </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1229,22 +1131,23 @@
         <v>20</v>
       </c>
       <c r="G23" t="n">
-        <v>572838.7549683576</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
+        <v>31.32</v>
+      </c>
+      <c r="I23" t="n">
+        <v>31.34</v>
+      </c>
+      <c r="J23" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1266,22 +1169,23 @@
         <v>29.6441</v>
       </c>
       <c r="G24" t="n">
-        <v>572838.7549683576</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
+        <v>31.34</v>
+      </c>
+      <c r="I24" t="n">
+        <v>31.34</v>
+      </c>
+      <c r="J24" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1303,22 +1207,19 @@
         <v>100</v>
       </c>
       <c r="G25" t="n">
-        <v>572938.7549683576</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>31.34</v>
+      </c>
+      <c r="I25" t="n">
+        <v>31.34</v>
+      </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1340,22 +1241,23 @@
         <v>100</v>
       </c>
       <c r="G26" t="n">
-        <v>573038.7549683576</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
+        <v>31.43</v>
+      </c>
+      <c r="I26" t="n">
+        <v>31.34</v>
+      </c>
+      <c r="J26" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1377,22 +1279,23 @@
         <v>31000</v>
       </c>
       <c r="G27" t="n">
-        <v>573038.7549683576</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
+        <v>31.47</v>
+      </c>
+      <c r="I27" t="n">
+        <v>31.34</v>
+      </c>
+      <c r="J27" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1414,22 +1317,15 @@
         <v>10000</v>
       </c>
       <c r="G28" t="n">
-        <v>573038.7549683576</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1451,22 +1347,15 @@
         <v>52763.5681</v>
       </c>
       <c r="G29" t="n">
-        <v>573038.7549683576</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1488,22 +1377,15 @@
         <v>25355.0923</v>
       </c>
       <c r="G30" t="n">
-        <v>573038.7549683576</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1525,22 +1407,15 @@
         <v>10562.3125</v>
       </c>
       <c r="G31" t="n">
-        <v>562476.4424683576</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1562,22 +1437,19 @@
         <v>100</v>
       </c>
       <c r="G32" t="n">
-        <v>562576.4424683576</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>31.22</v>
+      </c>
+      <c r="I32" t="n">
+        <v>31.22</v>
+      </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1599,22 +1471,21 @@
         <v>100</v>
       </c>
       <c r="G33" t="n">
-        <v>562676.4424683576</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>31.22</v>
+      </c>
+      <c r="J33" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1636,22 +1507,21 @@
         <v>12344.5558</v>
       </c>
       <c r="G34" t="n">
-        <v>562676.4424683576</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>31.22</v>
+      </c>
+      <c r="J34" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1673,22 +1543,15 @@
         <v>4199.0775</v>
       </c>
       <c r="G35" t="n">
-        <v>562676.4424683576</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1710,22 +1573,15 @@
         <v>8500</v>
       </c>
       <c r="G36" t="n">
-        <v>562676.4424683576</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1747,22 +1603,15 @@
         <v>2500</v>
       </c>
       <c r="G37" t="n">
-        <v>565176.4424683576</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1784,22 +1633,15 @@
         <v>25167</v>
       </c>
       <c r="G38" t="n">
-        <v>590343.4424683576</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1821,22 +1663,15 @@
         <v>49602.6618</v>
       </c>
       <c r="G39" t="n">
-        <v>639946.1042683576</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1858,22 +1693,15 @@
         <v>8844.896500000001</v>
       </c>
       <c r="G40" t="n">
-        <v>639946.1042683576</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1895,22 +1723,15 @@
         <v>40500</v>
       </c>
       <c r="G41" t="n">
-        <v>680446.1042683576</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1932,20 +1753,15 @@
         <v>100</v>
       </c>
       <c r="G42" t="n">
-        <v>680546.1042683576</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K42" t="n">
+        <v>1</v>
       </c>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1967,18 +1783,15 @@
         <v>63576.1463</v>
       </c>
       <c r="G43" t="n">
-        <v>616969.9579683576</v>
-      </c>
-      <c r="H43" t="n">
         <v>2</v>
       </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2000,18 +1813,15 @@
         <v>23281.5646</v>
       </c>
       <c r="G44" t="n">
-        <v>640251.5225683576</v>
-      </c>
-      <c r="H44" t="n">
         <v>2</v>
       </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2033,18 +1843,15 @@
         <v>11569.8565</v>
       </c>
       <c r="G45" t="n">
-        <v>628681.6660683576</v>
-      </c>
-      <c r="H45" t="n">
         <v>2</v>
       </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2066,18 +1873,15 @@
         <v>1348.2574</v>
       </c>
       <c r="G46" t="n">
-        <v>630029.9234683577</v>
-      </c>
-      <c r="H46" t="n">
         <v>2</v>
       </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2099,18 +1903,15 @@
         <v>82865.8459</v>
       </c>
       <c r="G47" t="n">
-        <v>547164.0775683577</v>
-      </c>
-      <c r="H47" t="n">
         <v>2</v>
       </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2132,18 +1933,15 @@
         <v>26148.602</v>
       </c>
       <c r="G48" t="n">
-        <v>521015.4755683577</v>
-      </c>
-      <c r="H48" t="n">
         <v>2</v>
       </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2165,18 +1963,15 @@
         <v>140075.8248</v>
       </c>
       <c r="G49" t="n">
-        <v>380939.6507683577</v>
-      </c>
-      <c r="H49" t="n">
         <v>2</v>
       </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2198,18 +1993,15 @@
         <v>234704.4047</v>
       </c>
       <c r="G50" t="n">
-        <v>146235.2460683577</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2231,18 +2023,15 @@
         <v>36116</v>
       </c>
       <c r="G51" t="n">
-        <v>146235.2460683577</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2264,18 +2053,15 @@
         <v>986.8132000000001</v>
       </c>
       <c r="G52" t="n">
-        <v>145248.4328683577</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2297,18 +2083,15 @@
         <v>100</v>
       </c>
       <c r="G53" t="n">
-        <v>145348.4328683577</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,18 +2113,15 @@
         <v>4325.6859</v>
       </c>
       <c r="G54" t="n">
-        <v>145348.4328683577</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2363,18 +2143,15 @@
         <v>18000</v>
       </c>
       <c r="G55" t="n">
-        <v>145348.4328683577</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2396,18 +2173,15 @@
         <v>11122.2481</v>
       </c>
       <c r="G56" t="n">
-        <v>145348.4328683577</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2429,18 +2203,15 @@
         <v>10200</v>
       </c>
       <c r="G57" t="n">
-        <v>135148.4328683577</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2462,18 +2233,15 @@
         <v>1941.8689</v>
       </c>
       <c r="G58" t="n">
-        <v>133206.5639683577</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2495,18 +2263,15 @@
         <v>2380.5928</v>
       </c>
       <c r="G59" t="n">
-        <v>130825.9711683577</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2528,18 +2293,15 @@
         <v>100</v>
       </c>
       <c r="G60" t="n">
-        <v>130925.9711683577</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2561,18 +2323,15 @@
         <v>11000</v>
       </c>
       <c r="G61" t="n">
-        <v>130925.9711683577</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2594,18 +2353,15 @@
         <v>11200</v>
       </c>
       <c r="G62" t="n">
-        <v>130925.9711683577</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2627,18 +2383,15 @@
         <v>85000</v>
       </c>
       <c r="G63" t="n">
-        <v>130925.9711683577</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2660,18 +2413,15 @@
         <v>3000</v>
       </c>
       <c r="G64" t="n">
-        <v>133925.9711683576</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2693,18 +2443,15 @@
         <v>40</v>
       </c>
       <c r="G65" t="n">
-        <v>133885.9711683576</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2726,18 +2473,15 @@
         <v>30916.6539</v>
       </c>
       <c r="G66" t="n">
-        <v>164802.6250683577</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2759,18 +2503,15 @@
         <v>33.00663926651913</v>
       </c>
       <c r="G67" t="n">
-        <v>164835.6317076242</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2792,18 +2533,15 @@
         <v>6329.1387</v>
       </c>
       <c r="G68" t="n">
-        <v>158506.4930076242</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2825,18 +2563,15 @@
         <v>6719</v>
       </c>
       <c r="G69" t="n">
-        <v>151787.4930076242</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2858,18 +2593,15 @@
         <v>1500</v>
       </c>
       <c r="G70" t="n">
-        <v>151787.4930076242</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2891,18 +2623,15 @@
         <v>8500</v>
       </c>
       <c r="G71" t="n">
-        <v>151787.4930076242</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2924,18 +2653,15 @@
         <v>5500</v>
       </c>
       <c r="G72" t="n">
-        <v>151787.4930076242</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2957,18 +2683,15 @@
         <v>5000</v>
       </c>
       <c r="G73" t="n">
-        <v>151787.4930076242</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2990,18 +2713,15 @@
         <v>1493.9572</v>
       </c>
       <c r="G74" t="n">
-        <v>151787.4930076242</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3023,18 +2743,15 @@
         <v>4165.5703</v>
       </c>
       <c r="G75" t="n">
-        <v>151787.4930076242</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3056,22 +2773,15 @@
         <v>7612.7405</v>
       </c>
       <c r="G76" t="n">
-        <v>151787.4930076242</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>31.39</v>
-      </c>
-      <c r="J76" t="n">
-        <v>31.39</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3093,26 +2803,15 @@
         <v>866</v>
       </c>
       <c r="G77" t="n">
-        <v>152653.4930076242</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>31.39</v>
-      </c>
-      <c r="J77" t="n">
-        <v>31.39</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3134,26 +2833,15 @@
         <v>38000</v>
       </c>
       <c r="G78" t="n">
-        <v>190653.4930076242</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>31.51</v>
-      </c>
-      <c r="J78" t="n">
-        <v>31.39</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3175,24 +2863,15 @@
         <v>1420.3069</v>
       </c>
       <c r="G79" t="n">
-        <v>190653.4930076242</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>31.39</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3214,24 +2893,15 @@
         <v>4664.3324</v>
       </c>
       <c r="G80" t="n">
-        <v>190653.4930076242</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>31.39</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3253,24 +2923,15 @@
         <v>1663.4566</v>
       </c>
       <c r="G81" t="n">
-        <v>192316.9496076242</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>31.39</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3292,24 +2953,15 @@
         <v>100</v>
       </c>
       <c r="G82" t="n">
-        <v>192416.9496076242</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>31.39</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3331,24 +2983,15 @@
         <v>100</v>
       </c>
       <c r="G83" t="n">
-        <v>192516.9496076242</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>31.39</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3370,24 +3013,15 @@
         <v>100</v>
       </c>
       <c r="G84" t="n">
-        <v>192616.9496076242</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>31.39</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3409,24 +3043,15 @@
         <v>2696.9287</v>
       </c>
       <c r="G85" t="n">
-        <v>189920.0209076242</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>31.39</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3448,24 +3073,15 @@
         <v>17303.0713</v>
       </c>
       <c r="G86" t="n">
-        <v>189920.0209076242</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>31.39</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3487,24 +3103,15 @@
         <v>251949.8672</v>
       </c>
       <c r="G87" t="n">
-        <v>441869.8881076242</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>31.39</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3526,24 +3133,15 @@
         <v>114438.3222</v>
       </c>
       <c r="G88" t="n">
-        <v>441869.8881076242</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>31.39</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3565,24 +3163,15 @@
         <v>119158.0452</v>
       </c>
       <c r="G89" t="n">
-        <v>561027.9333076242</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>31.39</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3604,24 +3193,15 @@
         <v>11103.1837</v>
       </c>
       <c r="G90" t="n">
-        <v>561027.9333076242</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>31.39</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3643,24 +3223,15 @@
         <v>15962.3431</v>
       </c>
       <c r="G91" t="n">
-        <v>561027.9333076242</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>31.39</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3682,24 +3253,15 @@
         <v>22600</v>
       </c>
       <c r="G92" t="n">
-        <v>561027.9333076242</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>31.39</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3721,24 +3283,15 @@
         <v>100</v>
       </c>
       <c r="G93" t="n">
-        <v>561127.9333076242</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>31.39</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3760,24 +3313,15 @@
         <v>14200</v>
       </c>
       <c r="G94" t="n">
-        <v>546927.9333076242</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>31.39</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3799,24 +3343,15 @@
         <v>100</v>
       </c>
       <c r="G95" t="n">
-        <v>547027.9333076242</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>31.39</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3838,24 +3373,15 @@
         <v>26410.144</v>
       </c>
       <c r="G96" t="n">
-        <v>547027.9333076242</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>31.39</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3877,24 +3403,15 @@
         <v>12736.3877</v>
       </c>
       <c r="G97" t="n">
-        <v>559764.3210076242</v>
-      </c>
-      <c r="H97" t="n">
         <v>2</v>
       </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>31.39</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1.00901720293087</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3916,18 +3433,15 @@
         <v>254.1703</v>
       </c>
       <c r="G98" t="n">
-        <v>559510.1507076242</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3949,18 +3463,15 @@
         <v>179824</v>
       </c>
       <c r="G99" t="n">
-        <v>379686.1507076242</v>
-      </c>
-      <c r="H99" t="n">
         <v>2</v>
       </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3982,18 +3493,15 @@
         <v>9867.697099999999</v>
       </c>
       <c r="G100" t="n">
-        <v>389553.8478076241</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4015,18 +3523,15 @@
         <v>5362.3168</v>
       </c>
       <c r="G101" t="n">
-        <v>384191.5310076242</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4048,18 +3553,15 @@
         <v>1000</v>
       </c>
       <c r="G102" t="n">
-        <v>385191.5310076242</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4081,18 +3583,15 @@
         <v>15350.8343</v>
       </c>
       <c r="G103" t="n">
-        <v>369840.6967076242</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4114,18 +3613,15 @@
         <v>26430</v>
       </c>
       <c r="G104" t="n">
-        <v>396270.6967076242</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4147,18 +3643,15 @@
         <v>43000</v>
       </c>
       <c r="G105" t="n">
-        <v>353270.6967076242</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4180,22 +3673,15 @@
         <v>375.8509</v>
       </c>
       <c r="G106" t="n">
-        <v>352894.8458076242</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>31.58</v>
-      </c>
-      <c r="J106" t="n">
-        <v>31.58</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4217,26 +3703,15 @@
         <v>2000</v>
       </c>
       <c r="G107" t="n">
-        <v>354894.8458076242</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>31.55</v>
-      </c>
-      <c r="J107" t="n">
-        <v>31.58</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4258,24 +3733,15 @@
         <v>183281.5413</v>
       </c>
       <c r="G108" t="n">
-        <v>538176.3871076242</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>31.58</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4297,24 +3763,15 @@
         <v>1305.2584</v>
       </c>
       <c r="G109" t="n">
-        <v>536871.1287076242</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>31.58</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4336,24 +3793,15 @@
         <v>100</v>
       </c>
       <c r="G110" t="n">
-        <v>536971.1287076242</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>31.58</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4375,24 +3823,15 @@
         <v>1341.5781</v>
       </c>
       <c r="G111" t="n">
-        <v>535629.5506076241</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>31.58</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4414,24 +3853,15 @@
         <v>1783.9369</v>
       </c>
       <c r="G112" t="n">
-        <v>533845.6137076241</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>31.58</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4453,24 +3883,15 @@
         <v>100</v>
       </c>
       <c r="G113" t="n">
-        <v>533945.6137076241</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>31.58</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4492,24 +3913,15 @@
         <v>50</v>
       </c>
       <c r="G114" t="n">
-        <v>533945.6137076241</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>31.58</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4531,24 +3943,15 @@
         <v>3113.131</v>
       </c>
       <c r="G115" t="n">
-        <v>530832.4827076241</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>31.58</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4570,24 +3973,15 @@
         <v>1733.9369</v>
       </c>
       <c r="G116" t="n">
-        <v>532566.4196076241</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>31.58</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4609,24 +4003,15 @@
         <v>12200</v>
       </c>
       <c r="G117" t="n">
-        <v>532566.4196076241</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>31.58</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4648,24 +4033,15 @@
         <v>112107.016</v>
       </c>
       <c r="G118" t="n">
-        <v>420459.4036076241</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>31.58</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4687,24 +4063,15 @@
         <v>11122.2481</v>
       </c>
       <c r="G119" t="n">
-        <v>409337.155507624</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>31.58</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4726,24 +4093,15 @@
         <v>1341.5781</v>
       </c>
       <c r="G120" t="n">
-        <v>410678.733607624</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>31.58</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4765,24 +4123,15 @@
         <v>100</v>
       </c>
       <c r="G121" t="n">
-        <v>410578.733607624</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>31.58</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4804,24 +4153,15 @@
         <v>12279.4053</v>
       </c>
       <c r="G122" t="n">
-        <v>422858.138907624</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>31.58</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
